--- a/Adm/unix_score.xlsx
+++ b/Adm/unix_score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odie\Dropbox\rsync_wspace\courses\unix.temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odie\Documents\GitHub\Unix-2015\Adm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,14 +565,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" width="11.5703125"/>
-    <col min="5" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="2" customWidth="1"/>
     <col min="14" max="1025" width="11.5703125"/>
   </cols>
@@ -1451,16 +1458,19 @@
       <c r="H28">
         <v>100</v>
       </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
       <c r="J28">
         <v>85</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>71.25</v>
+        <v>91.25</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25">

--- a/Adm/unix_score.xlsx
+++ b/Adm/unix_score.xlsx
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
